--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3570.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3570.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158861896390279</v>
+        <v>0.6013534069061279</v>
       </c>
       <c r="B1">
-        <v>1.674923215861343</v>
+        <v>1.434752464294434</v>
       </c>
       <c r="C1">
-        <v>3.257044304119273</v>
+        <v>3.586222410202026</v>
       </c>
       <c r="D1">
-        <v>4.837137972069212</v>
+        <v>0.6105040311813354</v>
       </c>
       <c r="E1">
-        <v>1.200130232335896</v>
+        <v>0.6669391393661499</v>
       </c>
     </row>
   </sheetData>
